--- a/TestDataFiles/LoginData.xlsx
+++ b/TestDataFiles/LoginData.xlsx
@@ -11,24 +11,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>UserID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Email</t>
   </si>
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>mngr47659</t>
-  </si>
-  <si>
-    <t>123456@</t>
-  </si>
-  <si>
-    <t>mngr476590</t>
-  </si>
-  <si>
-    <t>0123456@</t>
+    <t>ichiro@example.com</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sakura@example.com</t>
+  </si>
+  <si>
+    <t>pass1234</t>
+  </si>
+  <si>
+    <t>jun@example.com</t>
+  </si>
+  <si>
+    <t>pa55w0rd!</t>
+  </si>
+  <si>
+    <t>yoshiki@example.com</t>
+  </si>
+  <si>
+    <t>pass-pass</t>
   </si>
 </sst>
 </file>
@@ -42,10 +54,12 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <b/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -66,10 +80,10 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -296,10 +310,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -307,24 +321,24 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
+      <c r="A4" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
